--- a/Excel/ActionConfig@c.xlsx
+++ b/Excel/ActionConfig@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -41,6 +41,15 @@
     <t>视图类型</t>
   </si>
   <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>Json配置</t>
   </si>
   <si>
@@ -53,6 +62,15 @@
     <t>Type</t>
   </si>
   <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>JsonStr</t>
   </si>
   <si>
@@ -62,13 +80,46 @@
     <t>string</t>
   </si>
   <si>
-    <t>Buff_Dizz</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Buff_Dizzy</t>
   </si>
   <si>
     <t>Particle</t>
   </si>
   <si>
+    <t>{"Bone" : "Hud"}</t>
+  </si>
+  <si>
     <t>Buff-眩晕</t>
+  </si>
+  <si>
+    <t>Buff_Speed</t>
+  </si>
+  <si>
+    <t>{"Bone" : "Body"}</t>
+  </si>
+  <si>
+    <t>Buff-加速</t>
+  </si>
+  <si>
+    <t>Buff_Shield</t>
+  </si>
+  <si>
+    <t>Buff-护盾</t>
+  </si>
+  <si>
+    <t>Buff_Shield2</t>
+  </si>
+  <si>
+    <t>Buff-护盾2</t>
+  </si>
+  <si>
+    <t>Buff_Shield3</t>
+  </si>
+  <si>
+    <t>Buff-护盾3</t>
   </si>
 </sst>
 </file>
@@ -708,18 +759,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1042,84 +1096,273 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:G6"/>
+  <dimension ref="C2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="11.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.2416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="41.925" customWidth="1"/>
+    <col min="10" max="10" width="12.2416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" t="s">
+    <row r="2" spans="10:10">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:10">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:10">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
+    <row r="5" spans="3:10">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:10">
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActionConfig@c.xlsx
+++ b/Excel/ActionConfig@c.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -120,6 +120,33 @@
   </si>
   <si>
     <t>Buff-护盾3</t>
+  </si>
+  <si>
+    <t>Attack_01</t>
+  </si>
+  <si>
+    <t>Animator</t>
+  </si>
+  <si>
+    <t>{"ViewList" : []}</t>
+  </si>
+  <si>
+    <t>普攻动作</t>
+  </si>
+  <si>
+    <t>Attack_02</t>
+  </si>
+  <si>
+    <t>Attack_03</t>
+  </si>
+  <si>
+    <t>Attack_04</t>
+  </si>
+  <si>
+    <t>Skill_01</t>
+  </si>
+  <si>
+    <t>Skill_02</t>
   </si>
 </sst>
 </file>
@@ -759,7 +786,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="52">
@@ -1096,16 +1124,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:J15"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="13.75" customWidth="1"/>
+    <col min="4" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="41.925" customWidth="1"/>
     <col min="10" max="10" width="12.2416666666667" style="1" customWidth="1"/>
   </cols>
@@ -1122,7 +1150,7 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1148,7 +1176,7 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1172,7 +1200,7 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1208,7 +1236,7 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1234,7 +1262,7 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1363,6 +1391,137 @@
       </c>
       <c r="F15" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20">
+        <v>1003</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21">
+        <v>1004</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22">
+        <v>1005</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
